--- a/DATA_goal/Junction_Flooding_432.xlsx
+++ b/DATA_goal/Junction_Flooding_432.xlsx
@@ -655,103 +655,103 @@
         <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>0.04</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q3" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_432.xlsx
+++ b/DATA_goal/Junction_Flooding_432.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45113.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45113.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.32</v>
+        <v>17.078</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>12.559</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>1.781</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.25</v>
+        <v>37.536</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.02</v>
+        <v>29.804</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>13.317</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.42</v>
+        <v>49.837</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.07</v>
+        <v>20.911</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.89</v>
+        <v>9.137</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>13.127</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.04</v>
+        <v>15.023</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>16.115</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.126</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.51</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.09</v>
+        <v>19.015</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.01</v>
+        <v>11.748</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.343</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.795</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>198.684</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.5</v>
+        <v>37.811</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.45</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.03</v>
+        <v>25.002</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.95</v>
+        <v>13.163</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>2.184</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.59</v>
+        <v>25.307</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.29</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.16</v>
+        <v>9.955</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.3</v>
+        <v>11.647</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.36</v>
+        <v>15.816</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.26</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.65</v>
+        <v>45.487</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>6.848</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.16</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45113.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.84</v>
+        <v>9.445</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.946</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>1.071</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.58</v>
+        <v>20.866</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.13</v>
+        <v>16.415</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.99</v>
+        <v>7.357</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.54</v>
+        <v>31.874</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.45</v>
+        <v>11.605</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.91</v>
+        <v>5.099</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.57</v>
+        <v>8.356</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.59</v>
+        <v>9.006</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>2.252</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.88</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.7</v>
+        <v>10.545</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.36</v>
+        <v>6.615</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.878</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.445</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.54</v>
+        <v>107.138</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.64</v>
+        <v>21.135</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.52</v>
+        <v>13.905</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.03</v>
+        <v>7.286</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.239</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>15.508</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.47</v>
+        <v>5.574</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.518</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.792</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.19</v>
+        <v>29.214</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>3.763</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45113.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.86</v>
+        <v>17.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.65</v>
+        <v>13.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>1.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.72</v>
+        <v>38.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.27</v>
+        <v>31.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1</v>
+        <v>13.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.13</v>
+        <v>52.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.36</v>
+        <v>21.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.84</v>
+        <v>9.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.74</v>
+        <v>13.94</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.37</v>
+        <v>204.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.79</v>
+        <v>38.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.79</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.56</v>
+        <v>26.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.96</v>
+        <v>13.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>2.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.29</v>
+        <v>26.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.66</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.86</v>
+        <v>16.3</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.56</v>
+        <v>47.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.54</v>
+        <v>7.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_432.xlsx
+++ b/DATA_goal/Junction_Flooding_432.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45113.50694444445</v>
+        <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45113.51388888889</v>
+        <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.078</v>
+        <v>0.317</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.559</v>
+        <v>0.252</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.781</v>
+        <v>0.039</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.536</v>
+        <v>0.251</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.804</v>
+        <v>0.022</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.317</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.837</v>
+        <v>0.422</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.911</v>
+        <v>1.072</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.137</v>
+        <v>0.885</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.127</v>
+        <v>0.257</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.023</v>
+        <v>0.036</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.115</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.126</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.535</v>
+        <v>0.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.015</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.748</v>
+        <v>0.007</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.343</v>
+        <v>1.014</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.795</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.684</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.811</v>
+        <v>0.502</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.493</v>
+        <v>0.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.002</v>
+        <v>1.025</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.163</v>
+        <v>0.952</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.184</v>
+        <v>0.054</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.307</v>
+        <v>0.586</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.035</v>
+        <v>0.289</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.955</v>
+        <v>0.157</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.647</v>
+        <v>0.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.816</v>
+        <v>0.364</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>0.256</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.487</v>
+        <v>1.655</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.848</v>
+        <v>0.432</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.619</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45113.52083333334</v>
+        <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.445</v>
+        <v>0.836</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.946</v>
+        <v>0.636</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.071</v>
+        <v>0.044</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.866</v>
+        <v>1.584</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.415</v>
+        <v>1.133</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.357</v>
+        <v>0.995</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.874</v>
+        <v>1.541</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.605</v>
+        <v>1.446</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.099</v>
+        <v>0.913</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.16</v>
+        <v>0.715</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.356</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.006</v>
+        <v>0.585</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.252</v>
+        <v>0.175</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.519</v>
+        <v>0.876</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.545</v>
+        <v>0.697</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.615</v>
+        <v>0.36</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.878</v>
+        <v>0.719</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.445</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>107.138</v>
+        <v>4.538</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.135</v>
+        <v>1.643</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.941</v>
+        <v>0.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.905</v>
+        <v>1.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.286</v>
+        <v>1.033</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.239</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.508</v>
+        <v>1.049</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.131</v>
+        <v>0.607</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.574</v>
+        <v>0.473</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.518</v>
+        <v>0.649</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.792</v>
+        <v>0.849</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.188</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.214</v>
+        <v>2.187</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.763</v>
+        <v>0.574</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45113.52777777778</v>
+        <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.64</v>
+        <v>0.857</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.16</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.65</v>
+        <v>1.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.32</v>
+        <v>1.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.83</v>
+        <v>1.004</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.64</v>
+        <v>2.129</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.5</v>
+        <v>1.362</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.58</v>
+        <v>0.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.94</v>
+        <v>0.741</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.5</v>
+        <v>0.628</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.53</v>
+        <v>0.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.207</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.91</v>
+        <v>0.859</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.71</v>
+        <v>0.803</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.82</v>
+        <v>0.4</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.368</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.557</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.717</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>47.72</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>16.05</v>
+      <c r="L6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_432.xlsx
+++ b/DATA_goal/Junction_Flooding_432.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45113.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45113.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.317</v>
+        <v>17.078</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.252</v>
+        <v>12.559</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.039</v>
+        <v>1.781</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.251</v>
+        <v>37.536</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.022</v>
+        <v>29.804</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>13.317</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.422</v>
+        <v>49.837</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.072</v>
+        <v>20.911</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.885</v>
+        <v>9.137</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.257</v>
+        <v>13.127</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.036</v>
+        <v>15.023</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>16.115</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.126</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.512</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.08599999999999999</v>
+        <v>19.015</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.007</v>
+        <v>11.748</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.014</v>
+        <v>1.343</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.795</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>198.684</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.502</v>
+        <v>37.811</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.452</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.025</v>
+        <v>25.002</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.952</v>
+        <v>13.163</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.054</v>
+        <v>2.184</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.586</v>
+        <v>25.307</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.289</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.157</v>
+        <v>9.955</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.3</v>
+        <v>11.647</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.364</v>
+        <v>15.816</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.256</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.655</v>
+        <v>45.487</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.432</v>
+        <v>6.848</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.163</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45113.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.836</v>
+        <v>9.445</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.636</v>
+        <v>6.946</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.044</v>
+        <v>1.071</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.584</v>
+        <v>20.866</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.133</v>
+        <v>16.415</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.995</v>
+        <v>7.357</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.541</v>
+        <v>31.874</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.446</v>
+        <v>11.605</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.913</v>
+        <v>5.099</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.715</v>
+        <v>7.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>8.356</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.585</v>
+        <v>9.006</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.175</v>
+        <v>2.252</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.876</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.697</v>
+        <v>10.545</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.36</v>
+        <v>6.615</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.719</v>
+        <v>0.878</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.445</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.538</v>
+        <v>107.138</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.643</v>
+        <v>21.135</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.799</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.52</v>
+        <v>13.905</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.033</v>
+        <v>7.286</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.239</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.049</v>
+        <v>15.508</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.607</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.473</v>
+        <v>5.574</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.649</v>
+        <v>6.518</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.849</v>
+        <v>8.792</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.188</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.187</v>
+        <v>29.214</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.574</v>
+        <v>3.763</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45113.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.857</v>
+        <v>17.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.65</v>
+        <v>13.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>1.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.72</v>
+        <v>38.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.27</v>
+        <v>31.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.004</v>
+        <v>13.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.129</v>
+        <v>52.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.362</v>
+        <v>21.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.84</v>
+        <v>9.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.741</v>
+        <v>13.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.628</v>
+        <v>15.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.66</v>
+        <v>16.53</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.207</v>
+        <v>4.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.859</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.803</v>
+        <v>19.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.4</v>
+        <v>11.82</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.008</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.368</v>
+        <v>204.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.794</v>
+        <v>38.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.788</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.557</v>
+        <v>26.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.964</v>
+        <v>13.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>2.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.292</v>
+        <v>26.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.66</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.863</v>
+        <v>16.3</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.147</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.557</v>
+        <v>47.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.538</v>
+        <v>7.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.717</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>
